--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64073.92757775479</v>
+        <v>12642170.96666584</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64073.92757775479</v>
+        <v>12642170.96666584</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230230.4062962114</v>
+        <v>26689191.64046375</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>230230.4062962114</v>
+        <v>26689191.64046375</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1605136392.363268</v>
+        <v>30930085.92908035</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18961.32343348035</v>
+        <v>743892.6515007302</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37024.10905430259</v>
+        <v>1335016.552779046</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55355.93297673064</v>
+        <v>1926140.454057363</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>73229.03223560013</v>
+        <v>2517145.239523201</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>91102.13149446937</v>
+        <v>3108150.024989048</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>108975.2307533386</v>
+        <v>3699154.810454901</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>126792.050104338</v>
+        <v>4490567.85610756</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144398.614909883</v>
+        <v>5240140.247214745</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162061.4596232978</v>
+        <v>5789304.378135136</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>179934.5588821665</v>
+        <v>6380309.163601053</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>197807.6581410352</v>
+        <v>6971313.94906698</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>215680.7573999038</v>
+        <v>7562318.734532901</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>233553.8566587735</v>
+        <v>8153323.519998738</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>253223.8081500292</v>
+        <v>8539236.82903203</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>272453.9008351528</v>
+        <v>8714387.658000711</v>
       </c>
     </row>
   </sheetData>
@@ -27037,22 +27037,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>88.00000000002916</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>12.00000000002528</v>
@@ -27064,7 +27064,7 @@
         <v>76.00000000002639</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>8.243683772161602e-12</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,13 +27150,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>295</v>
